--- a/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
+++ b/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhoanganh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37CE125-36F3-BF42-9E0E-4F198041412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A566DA-C095-064D-AEF8-3688D62106ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2380" windowWidth="25880" windowHeight="17800" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
+    <workbookView xWindow="36980" yWindow="2900" windowWidth="25880" windowHeight="17500" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMaterial" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Gỗ</t>
   </si>
@@ -42,7 +42,16 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Giá thành</t>
+    <t>rất tốt</t>
+  </si>
+  <si>
+    <t>gỗ ngày 267</t>
+  </si>
+  <si>
+    <t>Giá nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá Bán </t>
   </si>
 </sst>
 </file>
@@ -99,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -137,8 +146,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -157,7 +166,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -202,8 +211,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -222,7 +231,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -630,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DFAAC-3120-EC42-8CBE-D5249101E78A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +654,7 @@
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -659,17 +668,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1500000</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
+++ b/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhoanganh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhoanganh/Documents/SEP490/BE/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A566DA-C095-064D-AEF8-3688D62106ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957048AF-956E-534B-BBBA-7494D6C4C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36980" yWindow="2900" windowWidth="25880" windowHeight="17500" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMaterial" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Gỗ</t>
   </si>
@@ -42,22 +42,22 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>rất tốt</t>
-  </si>
-  <si>
-    <t>gỗ ngày 267</t>
-  </si>
-  <si>
     <t>Giá nhập</t>
   </si>
   <si>
     <t xml:space="preserve">Giá Bán </t>
   </si>
+  <si>
+    <t>Ngày Nhập Kho(dd/MM/yyyy)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -114,6 +114,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DFAAC-3120-EC42-8CBE-D5249101E78A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,9 +656,10 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -668,28 +673,23 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1500000</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
+++ b/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhoanganh/Documents/SEP490/BE/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957048AF-956E-534B-BBBA-7494D6C4C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371ED4F2-3962-7F44-B273-22C38D3AD49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
+    <workbookView xWindow="7120" yWindow="2980" windowWidth="28800" windowHeight="16020" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMaterial" sheetId="1" r:id="rId1"/>
@@ -55,8 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ [$₫-42A]"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -118,6 +119,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +654,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +663,8 @@
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="8"/>
     <col min="7" max="7" width="35.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -672,10 +681,10 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -689,7 +698,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
+++ b/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhoanganh/Documents/SEP490/BE/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371ED4F2-3962-7F44-B273-22C38D3AD49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6FED5B-B1DC-3041-8A62-9259F70D709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="2980" windowWidth="28800" windowHeight="16020" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16020" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMaterial" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0\ [$₫-42A]"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ [$₫-42A]"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -119,13 +119,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{896F4013-9048-0042-A9C5-8A164EA392DD}">
-      <formula1>"Gỗ,Gương,Giấy Nhám,Kính"</formula1>
+      <formula1>"Gỗ,Giấy Nhám,Sơn"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
+++ b/BE/src/main/resources/templates/Bieumaunhapnguyenlieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhoanganh/Documents/SEP490/BE/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826BE012-F59D-2445-AAFD-DD08AE54A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776BE09C-425D-D146-979A-63D89C4304C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1020" windowWidth="28800" windowHeight="16020" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
+    <workbookView xWindow="1440" yWindow="4960" windowWidth="28800" windowHeight="16020" xr2:uid="{43F3433D-F17A-9B42-9CF4-18B4CB78D082}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMaterial" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Giá Bán </t>
   </si>
   <si>
-    <t>Ngày Nhập Kho(MM/dd/yyyy)</t>
+    <t>Ngày Nhập Kho(dd/MM/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
